--- a/task1feb2022/temp/31D3_VZOKA.xlsx
+++ b/task1feb2022/temp/31D3_VZOKA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9889D-ACF3-48FA-8992-4D83EE171AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13CE1B-920E-47DE-A7BD-3EF62A1F117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,13 @@
     <t>Site_Code</t>
   </si>
   <si>
-    <t>Collect Date (local)</t>
-  </si>
-  <si>
     <t>31D3</t>
   </si>
   <si>
-    <t>Water Temperature (degree C)</t>
+    <t>Wtemp_degree_C</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,15 +889,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>44266</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>44267</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>44268</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>44269</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>44270</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>44271</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>44272</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>44273</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>44274</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>44275</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>44276</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>44277</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>44278</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>44279</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>44280</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>44281</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>44282</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>44283</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>44284</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>44285</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>44286</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>44287</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>44288</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>44289</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>44290</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1">
         <v>44291</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>44292</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>44293</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>44294</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>44295</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>44296</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>44297</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>44298</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>44299</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>44300</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>44301</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>44302</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>44303</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>44304</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>44305</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>44306</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>44307</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>44308</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>44309</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>44310</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>44311</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>44312</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>44313</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1">
         <v>44314</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1">
         <v>44315</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1">
         <v>44316</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1">
         <v>44317</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>44318</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1">
         <v>44319</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>44320</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1">
         <v>44321</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>44322</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>44323</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1">
         <v>44324</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1">
         <v>44325</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
         <v>44326</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1">
         <v>44327</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1">
         <v>44328</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1">
         <v>44329</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1">
         <v>44330</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
         <v>44331</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1">
         <v>44332</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1">
         <v>44333</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
         <v>44334</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1">
         <v>44335</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1">
         <v>44336</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1">
         <v>44337</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1">
         <v>44338</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1">
         <v>44339</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1">
         <v>44340</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <v>44341</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1">
         <v>44342</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1">
         <v>44343</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1">
         <v>44344</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1">
         <v>44345</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1">
         <v>44346</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1">
         <v>44347</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
         <v>44348</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
         <v>44349</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
         <v>44350</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
         <v>44351</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="1">
         <v>44352</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="1">
         <v>44353</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1">
         <v>44354</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1">
         <v>44355</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
         <v>44356</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1">
         <v>44357</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1">
         <v>44358</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1">
         <v>44359</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <v>44360</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1">
         <v>44361</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
         <v>44362</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
         <v>44363</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1">
         <v>44364</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1">
         <v>44365</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
         <v>44366</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
         <v>44367</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
         <v>44368</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <v>44369</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
         <v>44370</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1">
         <v>44371</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="1">
         <v>44372</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1">
         <v>44373</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1">
         <v>44374</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1">
         <v>44375</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1">
         <v>44376</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1">
         <v>44377</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" s="1">
         <v>44378</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="1">
         <v>44379</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="1">
         <v>44380</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="1">
         <v>44381</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="1">
         <v>44382</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1">
         <v>44383</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1">
         <v>44384</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1">
         <v>44385</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1">
         <v>44386</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1">
         <v>44387</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1">
         <v>44388</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="1">
         <v>44389</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1">
         <v>44390</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1">
         <v>44391</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" s="1">
         <v>44392</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1">
         <v>44393</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1">
         <v>44394</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="1">
         <v>44395</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1">
         <v>44396</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1">
         <v>44397</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" s="1">
         <v>44398</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" s="1">
         <v>44399</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="1">
         <v>44400</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="1">
         <v>44401</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" s="1">
         <v>44402</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="1">
         <v>44403</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1">
         <v>44404</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1">
         <v>44405</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="1">
         <v>44406</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1">
         <v>44407</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" s="1">
         <v>44408</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="1">
         <v>44409</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="1">
         <v>44410</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1">
         <v>44411</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1">
         <v>44412</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1">
         <v>44413</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" s="1">
         <v>44414</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1">
         <v>44415</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1">
         <v>44416</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153" s="1">
         <v>44417</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1">
         <v>44418</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1">
         <v>44419</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1">
         <v>44420</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1">
         <v>44421</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1">
         <v>44422</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" s="1">
         <v>44423</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" s="1">
         <v>44424</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1">
         <v>44425</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1">
         <v>44426</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="1">
         <v>44427</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="1">
         <v>44428</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="1">
         <v>44429</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1">
         <v>44430</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="1">
         <v>44431</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1">
         <v>44432</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1">
         <v>44433</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" s="1">
         <v>44434</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" s="1">
         <v>44435</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="1">
         <v>44436</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1">
         <v>44437</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="1">
         <v>44438</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1">
         <v>44439</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1">
         <v>44440</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" s="1">
         <v>44441</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" s="1">
         <v>44442</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" s="1">
         <v>44443</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" s="1">
         <v>44444</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" s="1">
         <v>44445</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" s="1">
         <v>44446</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" s="1">
         <v>44447</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" s="1">
         <v>44448</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" s="1">
         <v>44449</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" s="1">
         <v>44450</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1">
         <v>44451</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" s="1">
         <v>44452</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" s="1">
         <v>44453</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" s="1">
         <v>44454</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191" s="1">
         <v>44455</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B192" s="1">
         <v>44456</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193" s="1">
         <v>44457</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" s="1">
         <v>44458</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195" s="1">
         <v>44459</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196" s="1">
         <v>44460</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B197" s="1">
         <v>44461</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="1">
         <v>44462</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199" s="1">
         <v>44463</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200" s="1">
         <v>44464</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201" s="1">
         <v>44465</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" s="1">
         <v>44466</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B203" s="1">
         <v>44467</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B204" s="1">
         <v>44468</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B205" s="1">
         <v>44469</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B206" s="1">
         <v>44470</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" s="1">
         <v>44471</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B208" s="1">
         <v>44472</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B209" s="1">
         <v>44473</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B210" s="1">
         <v>44474</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B211" s="1">
         <v>44475</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B212" s="1">
         <v>44476</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B213" s="1">
         <v>44477</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B214" s="1">
         <v>44478</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B215" s="1">
         <v>44479</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B216" s="1">
         <v>44480</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B217" s="1">
         <v>44481</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B218" s="1">
         <v>44482</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B219" s="1">
         <v>44483</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B220" s="1">
         <v>44484</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B221" s="1">
         <v>44485</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B222" s="1">
         <v>44486</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B223" s="1">
         <v>44487</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B224" s="1">
         <v>44488</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B225" s="1">
         <v>44489</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B226" s="1">
         <v>44490</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1">
         <v>44491</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B228" s="1">
         <v>44492</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B229" s="1">
         <v>44493</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B230" s="1">
         <v>44494</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B231" s="1">
         <v>44495</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B232" s="1">
         <v>44496</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="1">
         <v>44497</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" s="1">
         <v>44498</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B235" s="1">
         <v>44499</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B236" s="1">
         <v>44500</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B237" s="1">
         <v>44501</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B238" s="1">
         <v>44502</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B239" s="1">
         <v>44503</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" s="1">
         <v>44504</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B241" s="1">
         <v>44505</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B242" s="1">
         <v>44506</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B243" s="1">
         <v>44507</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B244" s="1">
         <v>44508</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B245" s="1">
         <v>44509</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B246" s="1">
         <v>44510</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B247" s="1">
         <v>44511</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B248" s="1">
         <v>44512</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B249" s="1">
         <v>44513</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B250" s="1">
         <v>44514</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B251" s="1">
         <v>44515</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B252" s="1">
         <v>44516</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B253" s="1">
         <v>44517</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" s="1">
         <v>44518</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B255" s="1">
         <v>44519</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B256" s="1">
         <v>44520</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B257" s="1">
         <v>44521</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="1">
         <v>44522</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" s="1">
         <v>44523</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B260" s="1">
         <v>44524</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B261" s="1">
         <v>44525</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262" s="1">
         <v>44526</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B263" s="1">
         <v>44527</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264" s="1">
         <v>44528</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B265" s="1">
         <v>44529</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266" s="1">
         <v>44530</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1">
         <v>44531</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268" s="1">
         <v>44532</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B269" s="1">
         <v>44533</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B270" s="1">
         <v>44534</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B271" s="1">
         <v>44535</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" s="1">
         <v>44536</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B273" s="1">
         <v>44537</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1">
         <v>44538</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B275" s="1">
         <v>44539</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" s="1">
         <v>44540</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B277" s="1">
         <v>44541</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" s="1">
         <v>44542</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B279" s="1">
         <v>44543</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" s="1">
         <v>44544</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B281" s="1">
         <v>44545</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" s="1">
         <v>44546</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B283" s="1">
         <v>44547</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284" s="1">
         <v>44548</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B285" s="1">
         <v>44549</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B286" s="1">
         <v>44550</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B287" s="1">
         <v>44551</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B288" s="1">
         <v>44552</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B289" s="1">
         <v>44553</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B290" s="1">
         <v>44554</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B291" s="1">
         <v>44555</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B292" s="1">
         <v>44556</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B293" s="1">
         <v>44557</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B294" s="1">
         <v>44558</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B295" s="1">
         <v>44559</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B296" s="1">
         <v>44560</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B297" s="1">
         <v>44561</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B298" s="1">
         <v>44562</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B299" s="1">
         <v>44563</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300" s="1">
         <v>44564</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B301" s="1">
         <v>44565</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302" s="1">
         <v>44566</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B303" s="1">
         <v>44567</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B304" s="1">
         <v>44568</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B305" s="1">
         <v>44569</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B306" s="1">
         <v>44570</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B307" s="1">
         <v>44571</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308" s="1">
         <v>44572</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B309" s="1">
         <v>44573</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" s="1">
         <v>44574</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B311" s="1">
         <v>44575</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" s="1">
         <v>44576</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B313" s="1">
         <v>44577</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B314" s="1">
         <v>44578</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B315" s="1">
         <v>44579</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B316" s="1">
         <v>44580</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B317" s="1">
         <v>44581</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B318" s="1">
         <v>44582</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B319" s="1">
         <v>44583</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B320" s="1">
         <v>44584</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B321" s="1">
         <v>44585</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B322" s="1">
         <v>44586</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B323" s="1">
         <v>44587</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B324" s="1">
         <v>44588</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B325" s="1">
         <v>44589</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B326" s="1">
         <v>44590</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B327" s="1">
         <v>44591</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B328" s="1">
         <v>44592</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B329" s="1">
         <v>44593</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B330" s="1">
         <v>44594</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B331" s="1">
         <v>44595</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B332" s="1">
         <v>44596</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B333" s="1">
         <v>44597</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B334" s="1">
         <v>44598</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B335" s="1">
         <v>44599</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B336" s="1">
         <v>44600</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B337" s="1">
         <v>44601</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B338" s="1">
         <v>44602</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B339" s="1">
         <v>44603</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B340" s="1">
         <v>44604</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B341" s="1">
         <v>44605</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342" s="1">
         <v>44606</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B343" s="1">
         <v>44607</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B344" s="1">
         <v>44608</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B345" s="1">
         <v>44609</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B346" s="1">
         <v>44610</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B347" s="1">
         <v>44611</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B348" s="1">
         <v>44612</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B349" s="1">
         <v>44613</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B350" s="1">
         <v>44614</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B351" s="1">
         <v>44615</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B352" s="1">
         <v>44616</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B353" s="1">
         <v>44617</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B354" s="1">
         <v>44618</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B355" s="1">
         <v>44619</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B356" s="1">
         <v>44620</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B357" s="1">
         <v>44621</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B358" s="1">
         <v>44622</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B359" s="1">
         <v>44623</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B360" s="1">
         <v>44624</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B361" s="1">
         <v>44625</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B362" s="1">
         <v>44626</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B363" s="1">
         <v>44627</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B364" s="1">
         <v>44628</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B365" s="1">
         <v>44629</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B366" s="1">
         <v>44630</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B367" s="1">
         <v>44631</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B368" s="1">
         <v>44632</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B369" s="1">
         <v>44633</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B370" s="1">
         <v>44634</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B371" s="1">
         <v>44635</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B372" s="1">
         <v>44636</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B373" s="1">
         <v>44637</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B374" s="1">
         <v>44638</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B375" s="1">
         <v>44639</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B376" s="1">
         <v>44640</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B377" s="1">
         <v>44641</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B378" s="1">
         <v>44642</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B379" s="1">
         <v>44643</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B380" s="1">
         <v>44644</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B381" s="1">
         <v>44645</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B382" s="1">
         <v>44646</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B383" s="1">
         <v>44647</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B384" s="1">
         <v>44648</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B385" s="1">
         <v>44649</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B386" s="1">
         <v>44650</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B387" s="1">
         <v>44651</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B388" s="1">
         <v>44652</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B389" s="1">
         <v>44653</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B390" s="1">
         <v>44654</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B391" s="1">
         <v>44655</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B392" s="1">
         <v>44656</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B393" s="1">
         <v>44657</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B394" s="1">
         <v>44658</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B395" s="1">
         <v>44659</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B396" s="1">
         <v>44660</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B397" s="1">
         <v>44661</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B398" s="1">
         <v>44662</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B399" s="1">
         <v>44663</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B400" s="1">
         <v>44664</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B401" s="1">
         <v>44665</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B402" s="1">
         <v>44666</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B403" s="1">
         <v>44667</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B404" s="1">
         <v>44668</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B405" s="1">
         <v>44669</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B406" s="1">
         <v>44670</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B407" s="1">
         <v>44671</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B408" s="1">
         <v>44672</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B409" s="1">
         <v>44673</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B410" s="1">
         <v>44674</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B411" s="1">
         <v>44675</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B412" s="1">
         <v>44676</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B413" s="1">
         <v>44677</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B414" s="1">
         <v>44678</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B415" s="1">
         <v>44679</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B416" s="1">
         <v>44680</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B417" s="1">
         <v>44681</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B418" s="1">
         <v>44682</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B419" s="1">
         <v>44683</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B420" s="1">
         <v>44684</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B421" s="1">
         <v>44685</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B422" s="1">
         <v>44686</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B423" s="1">
         <v>44687</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B424" s="1">
         <v>44688</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B425" s="1">
         <v>44689</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B426" s="1">
         <v>44690</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B427" s="1">
         <v>44691</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B428" s="1">
         <v>44692</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B429" s="1">
         <v>44693</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B430" s="1">
         <v>44694</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B431" s="1">
         <v>44695</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B432" s="1">
         <v>44696</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B433" s="1">
         <v>44697</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B434" s="1">
         <v>44698</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B435" s="1">
         <v>44699</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B436" s="1">
         <v>44700</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B437" s="1">
         <v>44701</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B438" s="1">
         <v>44702</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B439" s="1">
         <v>44703</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B440" s="1">
         <v>44704</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B441" s="1">
         <v>44705</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B442" s="1">
         <v>44706</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B443" s="1">
         <v>44707</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B444" s="1">
         <v>44708</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B445" s="1">
         <v>44709</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B446" s="1">
         <v>44710</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B447" s="1">
         <v>44711</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B448" s="1">
         <v>44712</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B449" s="1">
         <v>44713</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B450" s="1">
         <v>44714</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B451" s="1">
         <v>44715</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B452" s="1">
         <v>44716</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B453" s="1">
         <v>44717</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B454" s="1">
         <v>44718</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B455" s="1">
         <v>44719</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B456" s="1">
         <v>44720</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B457" s="1">
         <v>44721</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B458" s="1">
         <v>44722</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B459" s="1">
         <v>44723</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B460" s="1">
         <v>44724</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B461" s="1">
         <v>44725</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B462" s="1">
         <v>44726</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B463" s="1">
         <v>44727</v>
